--- a/_site/script/faculty_info.xlsx
+++ b/_site/script/faculty_info.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_site/script/faculty_info.xlsx
+++ b/_site/script/faculty_info.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB53C8D-7D43-4BDB-B42D-1C98DD40F698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>汤宏垚</t>
   </si>
@@ -64,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Siqi Chen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Artificial Intelligence, Multiagent systems, Game theory, Human-agent Interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.icdai.org/jianye.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈锶奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cic.tju.edu.cn/info/1072/1170.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Deep Reinforcement Learning; Representation Learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,18 +113,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Postdoc at University of Alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Postdoctoral Fellow of UdeM/MILA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yi Ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Professor,  School of Comuputer and Information Technology (School of Big Data), Shanxi University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement Learning, Embodied AI, RL for Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mayi1996.top/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Postdoc at University of Alberta; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,10 +197,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,22 +504,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -522,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -539,30 +547,30 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -573,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -593,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>2</v>
@@ -608,9 +616,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{2CCF7B9C-540E-49B1-9217-4D7A9CE1EE5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/script/faculty_info.xlsx
+++ b/_site/script/faculty_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB53C8D-7D43-4BDB-B42D-1C98DD40F698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF1B584-4E14-4691-BE24-FBBD29A05690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Postdoc at University of Alberta; </t>
+    <t xml:space="preserve">Assistant Professor, School of Intelligence Science and Technology, Nanjing University </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_site/script/faculty_info.xlsx
+++ b/_site/script/faculty_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF1B584-4E14-4691-BE24-FBBD29A05690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD1BE9-94C9-304E-AF2C-F91A0AA266E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>汤宏垚</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Associate Professor, College of Intelligence and Computing, Tianjin University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Multiagent Systems; Deep Reinforcement Learning; Evolutionary Algorithm; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Artificial intelligence; Multi-agent systems; Machine Learning; Game Theroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postdoctoral Fellow of UdeM/MILA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马亿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,7 +125,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Assistant Professor, School of Intelligence Science and Technology, Nanjing University </t>
+    <t>Professor, College of Intelligence and Computing, Tianjin University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial intelligence; Reinforcement Learning; Embodied AI; LLM Agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Professor, School of Intelligence Science and Technology, Nanjing University </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research Professor &amp; Tenured Associate professor, Tianjin University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Reseacher, College of Intelligence and Computing, Tianjin University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,21 +492,21 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -522,7 +526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -530,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -547,70 +551,70 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" ht="36">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +622,7 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{2CCF7B9C-540E-49B1-9217-4D7A9CE1EE5F}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{2CCF7B9C-540E-49B1-9217-4D7A9CE1EE5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/script/faculty_info.xlsx
+++ b/_site/script/faculty_info.xlsx
@@ -1,26 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD1BE9-94C9-304E-AF2C-F91A0AA266E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>研究方向</t>
+  </si>
+  <si>
+    <t>个人主页</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>郝建业</t>
+  </si>
+  <si>
+    <t>Jianye Hao</t>
+  </si>
+  <si>
+    <t>Professor, College of Intelligence and Computing, Tianjin University</t>
+  </si>
+  <si>
+    <t>Artificial intelligence; Reinforcement Learning; Embodied AI; LLM Agent</t>
+  </si>
+  <si>
+    <t>http://www.icdai.org/jianye.html</t>
+  </si>
+  <si>
+    <t>郑岩</t>
+  </si>
+  <si>
+    <t>Yan Zheng</t>
+  </si>
+  <si>
+    <t>Research Professor &amp; Tenured Associate professor, Tianjin University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiagent Systems; Deep Reinforcement Learning; Evolutionary Algorithm; </t>
+  </si>
+  <si>
+    <t>https://yanzzzzz.github.io/</t>
+  </si>
   <si>
     <t>汤宏垚</t>
   </si>
@@ -28,18 +83,42 @@
     <t>Hongyao Tang</t>
   </si>
   <si>
+    <t>Associate Reseacher, College of Intelligence and Computing, Tianjin University</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning; Representation Learning</t>
+  </si>
+  <si>
     <t>https://bluecontra.github.io/</t>
   </si>
   <si>
     <t>https://pubuserqiniu.paperol.cn/230944298_1_q9_1691486667QWJ2sY.jpg?attname=1_9_%e5%ad%a6%e6%9c%af%e4%ba%a4%e6%b5%81%e6%9d%90%e6%96%99%e4%b8%aa%e4%ba%ba%e7%85%a7%e7%89%871-%e6%ad%a3%e6%96%b9%e5%bd%a2.jpg&amp;e=1699777725&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:6STwDF5gC-23tf5bzd4GmfDRau4=</t>
   </si>
   <si>
+    <t>马亿</t>
+  </si>
+  <si>
+    <t>Yi Ma</t>
+  </si>
+  <si>
+    <t>Associate Professor,  School of Comuputer and Information Technology (School of Big Data), Shanxi University</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning, Embodied AI, RL for Application</t>
+  </si>
+  <si>
+    <t>https://mayi1996.top/</t>
+  </si>
+  <si>
     <t>杨天培</t>
   </si>
   <si>
     <t>Tianpei Yang</t>
   </si>
   <si>
+    <t xml:space="preserve">Associate Professor, School of Intelligence Science and Technology, Nanjing University </t>
+  </si>
+  <si>
     <t>Reinforcement Learning; Transfer Learning; Multiagent Learning</t>
   </si>
   <si>
@@ -49,118 +128,39 @@
     <t>https://pubuserqiniu.paperol.cn/230944298_2_q9_1691524593CxMcAs.jpg?attname=2_9_profile.jpg&amp;e=1699777725&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:XrexrHI_knFJdTlYy0Kohj9JldU=</t>
   </si>
   <si>
-    <t>郝建业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jianye Hao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑岩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yan Zheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiagent Systems; Deep Reinforcement Learning; Evolutionary Algorithm; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icdai.org/jianye.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://yanzzzzz.github.io/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep Reinforcement Learning; Representation Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yi Ma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Associate Professor,  School of Comuputer and Information Technology (School of Big Data), Shanxi University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforcement Learning, Embodied AI, RL for Application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mayi1996.top/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor, College of Intelligence and Computing, Tianjin University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Artificial intelligence; Reinforcement Learning; Embodied AI; LLM Agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Associate Professor, School of Intelligence Science and Technology, Nanjing University </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Research Professor &amp; Tenured Associate professor, Tianjin University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Associate Reseacher, College of Intelligence and Computing, Tianjin University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>倪飞</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Postdoctoral fellow,Imperial College London</t>
+  </si>
+  <si>
+    <t>Model based RL; Diffusion for RL; LLM</t>
+  </si>
+  <si>
+    <t>https://fei-ni.github.io/</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_18_q7_1691566953phrMka.jpg?attname=20_7_%e8%af%81%e4%bb%b6%e7%85%a71_1.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:V4xgygdN3C4K0YvwD90au26bLWg=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +168,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -176,19 +175,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,31 +524,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -269,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -304,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -478,69 +1091,64 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -551,79 +1159,100 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="31.2" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{2CCF7B9C-540E-49B1-9217-4D7A9CE1EE5F}"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.icdai.org/jianye.html"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://yanzzzzz.github.io/"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://mayi1996.top/"/>
+    <hyperlink ref="F7" r:id="rId4" display="https://pubuserqiniu.paperol.cn/230948160_18_q7_1691566953phrMka.jpg?attname=20_7_%e8%af%81%e4%bb%b6%e7%85%a71_1.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:V4xgygdN3C4K0YvwD90au26bLWg="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_site/script/faculty_info.xlsx
+++ b/_site/script/faculty_info.xlsx
@@ -56,7 +56,7 @@
     <t>Professor, College of Intelligence and Computing, Tianjin University</t>
   </si>
   <si>
-    <t>Artificial intelligence; Reinforcement Learning; Embodied AI; LLM Agent</t>
+    <t>Artificial intelligence, Reinforcement Learning, Embodied AI, LLM Agent</t>
   </si>
   <si>
     <t>http://www.icdai.org/jianye.html</t>
@@ -71,7 +71,7 @@
     <t>Research Professor &amp; Tenured Associate professor, Tianjin University</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiagent Systems; Deep Reinforcement Learning; Evolutionary Algorithm; </t>
+    <t xml:space="preserve">Multiagent Systems, Deep Reinforcement Learning, Evolutionary Algorithm </t>
   </si>
   <si>
     <t>https://yanzzzzz.github.io/</t>
@@ -86,7 +86,7 @@
     <t>Associate Reseacher, College of Intelligence and Computing, Tianjin University</t>
   </si>
   <si>
-    <t>Deep Reinforcement Learning; Representation Learning</t>
+    <t>Deep Reinforcement Learning, Representation Learning</t>
   </si>
   <si>
     <t>https://bluecontra.github.io/</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Associate Professor, School of Intelligence Science and Technology, Nanjing University </t>
   </si>
   <si>
-    <t>Reinforcement Learning; Transfer Learning; Multiagent Learning</t>
+    <t>Reinforcement Learning, Transfer Learning, Multiagent Learning</t>
   </si>
   <si>
     <t>https://tianpeiyang.github.io/</t>
@@ -134,10 +134,10 @@
     <t>Spike</t>
   </si>
   <si>
-    <t>Postdoctoral fellow,Imperial College London</t>
-  </si>
-  <si>
-    <t>Model based RL; Diffusion for RL; LLM</t>
+    <t>Postdoctoral fellow, Imperial College London</t>
+  </si>
+  <si>
+    <t>Model based RL, Diffusion for RL, LLM</t>
   </si>
   <si>
     <t>https://fei-ni.github.io/</t>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +174,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -625,156 +618,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1100,7 +1090,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1232,7 +1222,7 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
